--- a/tests/indicators/s-z/StarcBands/StarcBands.Calc.xlsx
+++ b/tests/indicators/s-z/StarcBands/StarcBands.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA369E8-8CFB-4A40-BD92-86B506705A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6254B5-A4E4-4209-95C9-F5DFFB8F9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATR" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>volume</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>H-L</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   <si>
     <t>CENTER</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -600,10 +600,10 @@
     <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -814,7 +814,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -834,7 +834,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -855,26 +875,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1094,7 +1094,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="20" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="20" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="18" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="17" dataCellStyle="Currency"/>
@@ -1107,18 +1107,18 @@
     <tableColumn id="11" xr3:uid="{10684292-6050-4331-AAC5-0FA320374389}" name="|H-pC|" dataDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>ABS(testdata[[#This Row],[high]]-F1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7639B0EF-4461-45C6-93E9-01F836F60578}" name="|L-pC|" dataDxfId="10" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{7639B0EF-4461-45C6-93E9-01F836F60578}" name="|L-pC|" dataDxfId="11" dataCellStyle="Currency">
       <calculatedColumnFormula>ABS(testdata[[#This Row],[low]]-F1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CE73AE3F-2651-4F06-AF13-E770225EA4B1}" name="TR" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{CE73AE3F-2651-4F06-AF13-E770225EA4B1}" name="TR" dataDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>MAX(testdata[[#This Row],[H-L]:[|L-pC|]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{58A6077F-285C-4D4A-ACE5-FFB42D9DD7EE}" name="ATR" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{AA9BF534-4B73-49E2-843C-BAC0E7AE172E}" name="CENTER" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{58A6077F-285C-4D4A-ACE5-FFB42D9DD7EE}" name="ATR" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{AA9BF534-4B73-49E2-843C-BAC0E7AE172E}" name="CENTER" dataDxfId="8" dataCellStyle="Currency"/>
     <tableColumn id="18" xr3:uid="{55F66110-5C07-46EB-8829-702348A2FDBA}" name="UPPER" dataDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>testdata[[#This Row],[CENTER]]+2*testdata[[#This Row],[ATR]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{F2648EE9-CBC6-42BF-8ED9-2D66C02E25E0}" name="LOWER" dataDxfId="11" dataCellStyle="Currency">
+    <tableColumn id="19" xr3:uid="{F2648EE9-CBC6-42BF-8ED9-2D66C02E25E0}" name="LOWER" dataDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>testdata[[#This Row],[CENTER]]-2*testdata[[#This Row],[ATR]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1443,7 +1443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="6" width="10.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
@@ -1457,7 +1457,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1478,48 +1478,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" t="s">
         <v>12</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>42738</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>42739</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42740</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>42741</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>42744</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>42745</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>42746</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>42747</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>42748</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>42752</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>42753</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>42754</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>42755</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>42758</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>42759</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>42760</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>42761</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>42762</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>42765</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>42766</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>42767</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>42768</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>42769</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>42772</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>42773</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>42774</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>42775</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>42776</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>42779</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>42780</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>42781</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>42782</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>42783</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>42787</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>42788</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>42789</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>42790</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>42793</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>42794</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>42795</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>42796</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>42797</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>42800</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>42801</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>42802</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>42803</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>42804</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>42807</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>42808</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>42809</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>42810</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>42811</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>42814</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>42815</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>42816</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>42817</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>42818</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>42821</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>42822</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>42823</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>42824</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>42825</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>42828</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>42829</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>42830</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>42831</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>42832</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>42835</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>42836</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>42837</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>42838</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>42842</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>42843</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>42844</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>42845</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>42846</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>42849</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>42850</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>42851</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>42852</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>42853</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>42856</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>42857</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>42858</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>42859</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>42860</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>42863</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>42864</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>42865</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>42866</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>42867</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>42870</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>42871</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>42872</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>42873</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>42874</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>42877</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>42878</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>42879</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>42880</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>42881</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>42885</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>42886</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>42887</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>42888</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>42891</v>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>42892</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>42893</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>42894</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>42895</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>42898</v>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>42899</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>42900</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>42901</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>42902</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>42905</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>42906</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>42907</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>42908</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>42909</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>42912</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>42913</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>42914</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>42915</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>42916</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>42919</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>42921</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>42922</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>42923</v>
@@ -9708,7 +9708,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>42926</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>42927</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>42928</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>42929</v>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>42930</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>42933</v>
@@ -10110,7 +10110,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>42934</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>42935</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>42936</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>42937</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>42940</v>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>42941</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>42942</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>42943</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>42944</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>42947</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>42948</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>42949</v>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>42950</v>
@@ -10981,7 +10981,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>42951</v>
@@ -11048,7 +11048,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>42954</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>42955</v>
@@ -11182,7 +11182,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>42956</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>42957</v>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>42958</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>42961</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>42962</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>42963</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>42964</v>
@@ -11651,7 +11651,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>42965</v>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>42968</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>42969</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>42970</v>
@@ -11919,7 +11919,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>42971</v>
@@ -11986,7 +11986,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>42972</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>42975</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>42976</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>42977</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>42978</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>42979</v>
@@ -12388,7 +12388,7 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>42983</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>42984</v>
@@ -12522,7 +12522,7 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>42985</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>42986</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>42989</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>42990</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>42991</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>42992</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>42993</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>42996</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>42997</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>42998</v>
@@ -13192,7 +13192,7 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>42999</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>43000</v>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>43003</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>43004</v>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>43005</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>43006</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>43007</v>
@@ -13661,7 +13661,7 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>43010</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>43011</v>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>43012</v>
@@ -13862,7 +13862,7 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>43013</v>
@@ -13929,7 +13929,7 @@
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>43014</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>43017</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>43018</v>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>43019</v>
@@ -14197,7 +14197,7 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>43020</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>43021</v>
@@ -14331,7 +14331,7 @@
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>43024</v>
@@ -14398,7 +14398,7 @@
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>43025</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>43026</v>
@@ -14532,7 +14532,7 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>43027</v>
@@ -14599,7 +14599,7 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>43028</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>43031</v>
@@ -14733,7 +14733,7 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>43032</v>
@@ -14800,7 +14800,7 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>43033</v>
@@ -14867,7 +14867,7 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>43034</v>
@@ -14934,7 +14934,7 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>43035</v>
@@ -15001,7 +15001,7 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>43038</v>
@@ -15068,7 +15068,7 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>43039</v>
@@ -15135,7 +15135,7 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>43040</v>
@@ -15202,7 +15202,7 @@
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>43041</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>43042</v>
@@ -15336,7 +15336,7 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>43045</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>43046</v>
@@ -15470,7 +15470,7 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>43047</v>
@@ -15537,7 +15537,7 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>43048</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>43049</v>
@@ -15671,7 +15671,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>43052</v>
@@ -15738,7 +15738,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>43053</v>
@@ -15805,7 +15805,7 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>43054</v>
@@ -15872,7 +15872,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>43055</v>
@@ -15939,7 +15939,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>43056</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>43059</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>43060</v>
@@ -16140,7 +16140,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>43061</v>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>43063</v>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>43066</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>43067</v>
@@ -16408,7 +16408,7 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>43068</v>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>43069</v>
@@ -16542,7 +16542,7 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>43070</v>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>43073</v>
@@ -16676,7 +16676,7 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>43074</v>
@@ -16743,7 +16743,7 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>43075</v>
@@ -16810,7 +16810,7 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>43076</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>43077</v>
@@ -16944,7 +16944,7 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>43080</v>
@@ -17011,7 +17011,7 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>43081</v>
@@ -17078,7 +17078,7 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>43082</v>
@@ -17145,7 +17145,7 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>43083</v>
@@ -17212,7 +17212,7 @@
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>43084</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>43087</v>
@@ -17346,7 +17346,7 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3">
         <v>43088</v>
@@ -17413,7 +17413,7 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3">
         <v>43089</v>
@@ -17480,7 +17480,7 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3">
         <v>43090</v>
@@ -17547,7 +17547,7 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3">
         <v>43091</v>
@@ -17614,7 +17614,7 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3">
         <v>43095</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3">
         <v>43096</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3">
         <v>43097</v>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3">
         <v>43098</v>
@@ -17882,7 +17882,7 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3">
         <v>43102</v>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3">
         <v>43103</v>
@@ -18016,7 +18016,7 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3">
         <v>43104</v>
@@ -18083,7 +18083,7 @@
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3">
         <v>43105</v>
@@ -18150,7 +18150,7 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3">
         <v>43108</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3">
         <v>43109</v>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3">
         <v>43110</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3">
         <v>43111</v>
@@ -18418,7 +18418,7 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3">
         <v>43112</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3">
         <v>43116</v>
@@ -18552,7 +18552,7 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3">
         <v>43117</v>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3">
         <v>43118</v>
@@ -18686,7 +18686,7 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3">
         <v>43119</v>
@@ -18753,7 +18753,7 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3">
         <v>43122</v>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3">
         <v>43123</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3">
         <v>43124</v>
@@ -18954,7 +18954,7 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3">
         <v>43125</v>
@@ -19021,7 +19021,7 @@
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3">
         <v>43126</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3">
         <v>43129</v>
@@ -19155,7 +19155,7 @@
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3">
         <v>43130</v>
@@ -19222,7 +19222,7 @@
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3">
         <v>43131</v>
@@ -19289,7 +19289,7 @@
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3">
         <v>43132</v>
@@ -19356,7 +19356,7 @@
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3">
         <v>43133</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3">
         <v>43136</v>
@@ -19490,7 +19490,7 @@
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3">
         <v>43137</v>
@@ -19557,7 +19557,7 @@
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3">
         <v>43138</v>
@@ -19624,7 +19624,7 @@
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3">
         <v>43139</v>
@@ -19691,7 +19691,7 @@
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3">
         <v>43140</v>
@@ -19758,7 +19758,7 @@
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3">
         <v>43143</v>
@@ -19825,7 +19825,7 @@
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3">
         <v>43144</v>
@@ -19892,7 +19892,7 @@
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3">
         <v>43145</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3">
         <v>43146</v>
@@ -20026,7 +20026,7 @@
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3">
         <v>43147</v>
@@ -20093,7 +20093,7 @@
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3">
         <v>43151</v>
@@ -20160,7 +20160,7 @@
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3">
         <v>43152</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3">
         <v>43153</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3">
         <v>43154</v>
@@ -20361,7 +20361,7 @@
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3">
         <v>43157</v>
@@ -20428,7 +20428,7 @@
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3">
         <v>43158</v>
@@ -20495,7 +20495,7 @@
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3">
         <v>43159</v>
@@ -20562,7 +20562,7 @@
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3">
         <v>43160</v>
@@ -20629,7 +20629,7 @@
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3">
         <v>43161</v>
@@ -20696,7 +20696,7 @@
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3">
         <v>43164</v>
@@ -20763,7 +20763,7 @@
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3">
         <v>43165</v>
@@ -20830,7 +20830,7 @@
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3">
         <v>43166</v>
@@ -20897,7 +20897,7 @@
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3">
         <v>43167</v>
@@ -20964,7 +20964,7 @@
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3">
         <v>43168</v>
@@ -21031,7 +21031,7 @@
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3">
         <v>43171</v>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3">
         <v>43172</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3">
         <v>43173</v>
@@ -21232,7 +21232,7 @@
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3">
         <v>43174</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3">
         <v>43175</v>
@@ -21366,7 +21366,7 @@
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3">
         <v>43178</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3">
         <v>43179</v>
@@ -21500,7 +21500,7 @@
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3">
         <v>43180</v>
@@ -21567,7 +21567,7 @@
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3">
         <v>43181</v>
@@ -21634,7 +21634,7 @@
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3">
         <v>43182</v>
@@ -21701,7 +21701,7 @@
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3">
         <v>43185</v>
@@ -21768,7 +21768,7 @@
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3">
         <v>43186</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3">
         <v>43187</v>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3">
         <v>43188</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3">
         <v>43192</v>
@@ -22036,7 +22036,7 @@
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3">
         <v>43193</v>
@@ -22103,7 +22103,7 @@
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3">
         <v>43194</v>
@@ -22170,7 +22170,7 @@
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3">
         <v>43195</v>
@@ -22237,7 +22237,7 @@
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3">
         <v>43196</v>
@@ -22304,7 +22304,7 @@
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3">
         <v>43199</v>
@@ -22371,7 +22371,7 @@
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3">
         <v>43200</v>
@@ -22438,7 +22438,7 @@
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3">
         <v>43201</v>
@@ -22505,7 +22505,7 @@
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3">
         <v>43202</v>
@@ -22572,7 +22572,7 @@
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3">
         <v>43203</v>
@@ -22639,7 +22639,7 @@
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3">
         <v>43206</v>
@@ -22706,7 +22706,7 @@
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3">
         <v>43207</v>
@@ -22773,7 +22773,7 @@
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3">
         <v>43208</v>
@@ -22840,7 +22840,7 @@
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3">
         <v>43209</v>
@@ -22907,7 +22907,7 @@
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3">
         <v>43210</v>
@@ -22974,7 +22974,7 @@
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3">
         <v>43213</v>
@@ -23041,7 +23041,7 @@
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3">
         <v>43214</v>
@@ -23108,7 +23108,7 @@
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3">
         <v>43215</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3">
         <v>43216</v>
@@ -23242,7 +23242,7 @@
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3">
         <v>43217</v>
@@ -23309,7 +23309,7 @@
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3">
         <v>43220</v>
@@ -23376,7 +23376,7 @@
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3">
         <v>43221</v>
@@ -23443,7 +23443,7 @@
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3">
         <v>43222</v>
@@ -23510,7 +23510,7 @@
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3">
         <v>43223</v>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3">
         <v>43224</v>
@@ -23644,7 +23644,7 @@
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3">
         <v>43227</v>
@@ -23711,7 +23711,7 @@
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3">
         <v>43228</v>
@@ -23778,7 +23778,7 @@
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3">
         <v>43229</v>
@@ -23845,7 +23845,7 @@
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3">
         <v>43230</v>
@@ -23912,7 +23912,7 @@
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3">
         <v>43231</v>
@@ -23979,7 +23979,7 @@
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3">
         <v>43234</v>
@@ -24046,7 +24046,7 @@
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3">
         <v>43235</v>
@@ -24113,7 +24113,7 @@
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3">
         <v>43236</v>
@@ -24180,7 +24180,7 @@
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3">
         <v>43237</v>
@@ -24247,7 +24247,7 @@
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3">
         <v>43238</v>
@@ -24314,7 +24314,7 @@
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3">
         <v>43241</v>
@@ -24381,7 +24381,7 @@
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3">
         <v>43242</v>
@@ -24448,7 +24448,7 @@
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3">
         <v>43243</v>
@@ -24515,7 +24515,7 @@
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3">
         <v>43244</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3">
         <v>43245</v>
@@ -24649,7 +24649,7 @@
     </row>
     <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3">
         <v>43249</v>
@@ -24716,7 +24716,7 @@
     </row>
     <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3">
         <v>43250</v>
@@ -24783,7 +24783,7 @@
     </row>
     <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3">
         <v>43251</v>
@@ -24850,7 +24850,7 @@
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3">
         <v>43252</v>
@@ -24917,7 +24917,7 @@
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3">
         <v>43255</v>
@@ -24984,7 +24984,7 @@
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3">
         <v>43256</v>
@@ -25051,7 +25051,7 @@
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3">
         <v>43257</v>
@@ -25118,7 +25118,7 @@
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3">
         <v>43258</v>
@@ -25185,7 +25185,7 @@
     </row>
     <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3">
         <v>43259</v>
@@ -25252,7 +25252,7 @@
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3">
         <v>43262</v>
@@ -25319,7 +25319,7 @@
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3">
         <v>43263</v>
@@ -25386,7 +25386,7 @@
     </row>
     <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3">
         <v>43264</v>
@@ -25453,7 +25453,7 @@
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3">
         <v>43265</v>
@@ -25520,7 +25520,7 @@
     </row>
     <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3">
         <v>43266</v>
@@ -25587,7 +25587,7 @@
     </row>
     <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3">
         <v>43269</v>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3">
         <v>43270</v>
@@ -25721,7 +25721,7 @@
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3">
         <v>43271</v>
@@ -25788,7 +25788,7 @@
     </row>
     <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3">
         <v>43272</v>
@@ -25855,7 +25855,7 @@
     </row>
     <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3">
         <v>43273</v>
@@ -25922,7 +25922,7 @@
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3">
         <v>43276</v>
@@ -25989,7 +25989,7 @@
     </row>
     <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3">
         <v>43277</v>
@@ -26056,7 +26056,7 @@
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3">
         <v>43278</v>
@@ -26123,7 +26123,7 @@
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3">
         <v>43279</v>
@@ -26190,7 +26190,7 @@
     </row>
     <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3">
         <v>43280</v>
@@ -26257,7 +26257,7 @@
     </row>
     <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3">
         <v>43283</v>
@@ -26324,7 +26324,7 @@
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3">
         <v>43284</v>
@@ -26391,7 +26391,7 @@
     </row>
     <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3">
         <v>43286</v>
@@ -26458,7 +26458,7 @@
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3">
         <v>43287</v>
@@ -26525,7 +26525,7 @@
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3">
         <v>43290</v>
@@ -26592,7 +26592,7 @@
     </row>
     <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3">
         <v>43291</v>
@@ -26659,7 +26659,7 @@
     </row>
     <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3">
         <v>43292</v>
@@ -26726,7 +26726,7 @@
     </row>
     <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3">
         <v>43293</v>
@@ -26793,7 +26793,7 @@
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3">
         <v>43294</v>
@@ -26860,7 +26860,7 @@
     </row>
     <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3">
         <v>43297</v>
@@ -26927,7 +26927,7 @@
     </row>
     <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3">
         <v>43298</v>
@@ -26994,7 +26994,7 @@
     </row>
     <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3">
         <v>43299</v>
@@ -27061,7 +27061,7 @@
     </row>
     <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3">
         <v>43300</v>
@@ -27128,7 +27128,7 @@
     </row>
     <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3">
         <v>43301</v>
@@ -27195,7 +27195,7 @@
     </row>
     <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3">
         <v>43304</v>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3">
         <v>43305</v>
@@ -27329,7 +27329,7 @@
     </row>
     <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3">
         <v>43306</v>
@@ -27396,7 +27396,7 @@
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3">
         <v>43307</v>
@@ -27463,7 +27463,7 @@
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3">
         <v>43308</v>
@@ -27530,7 +27530,7 @@
     </row>
     <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3">
         <v>43311</v>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3">
         <v>43312</v>
@@ -27664,7 +27664,7 @@
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3">
         <v>43313</v>
@@ -27731,7 +27731,7 @@
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3">
         <v>43314</v>
@@ -27798,7 +27798,7 @@
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="3">
         <v>43315</v>
@@ -27865,7 +27865,7 @@
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="3">
         <v>43318</v>
@@ -27932,7 +27932,7 @@
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="3">
         <v>43319</v>
@@ -27999,7 +27999,7 @@
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="3">
         <v>43320</v>
@@ -28066,7 +28066,7 @@
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="3">
         <v>43321</v>
@@ -28133,7 +28133,7 @@
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="3">
         <v>43322</v>
@@ -28200,7 +28200,7 @@
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="3">
         <v>43325</v>
@@ -28267,7 +28267,7 @@
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="3">
         <v>43326</v>
@@ -28334,7 +28334,7 @@
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="3">
         <v>43327</v>
@@ -28401,7 +28401,7 @@
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="3">
         <v>43328</v>
@@ -28468,7 +28468,7 @@
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="3">
         <v>43329</v>
@@ -28535,7 +28535,7 @@
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="3">
         <v>43332</v>
@@ -28602,7 +28602,7 @@
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="3">
         <v>43333</v>
@@ -28669,7 +28669,7 @@
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="3">
         <v>43334</v>
@@ -28736,7 +28736,7 @@
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="3">
         <v>43335</v>
@@ -28803,7 +28803,7 @@
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="3">
         <v>43336</v>
@@ -28870,7 +28870,7 @@
     </row>
     <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="3">
         <v>43339</v>
@@ -28937,7 +28937,7 @@
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="3">
         <v>43340</v>
@@ -29004,7 +29004,7 @@
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="3">
         <v>43341</v>
@@ -29071,7 +29071,7 @@
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="3">
         <v>43342</v>
@@ -29138,7 +29138,7 @@
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="3">
         <v>43343</v>
@@ -29205,7 +29205,7 @@
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="3">
         <v>43347</v>
@@ -29272,7 +29272,7 @@
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="3">
         <v>43348</v>
@@ -29339,7 +29339,7 @@
     </row>
     <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="3">
         <v>43349</v>
@@ -29406,7 +29406,7 @@
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="3">
         <v>43350</v>
@@ -29473,7 +29473,7 @@
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="3">
         <v>43353</v>
@@ -29540,7 +29540,7 @@
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="3">
         <v>43354</v>
@@ -29607,7 +29607,7 @@
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3">
         <v>43355</v>
@@ -29674,7 +29674,7 @@
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="3">
         <v>43356</v>
@@ -29741,7 +29741,7 @@
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3">
         <v>43357</v>
@@ -29808,7 +29808,7 @@
     </row>
     <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="3">
         <v>43360</v>
@@ -29875,7 +29875,7 @@
     </row>
     <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="3">
         <v>43361</v>
@@ -29942,7 +29942,7 @@
     </row>
     <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="3">
         <v>43362</v>
@@ -30009,7 +30009,7 @@
     </row>
     <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="3">
         <v>43363</v>
@@ -30076,7 +30076,7 @@
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="3">
         <v>43364</v>
@@ -30143,7 +30143,7 @@
     </row>
     <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="3">
         <v>43367</v>
@@ -30210,7 +30210,7 @@
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="3">
         <v>43368</v>
@@ -30277,7 +30277,7 @@
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="3">
         <v>43369</v>
@@ -30344,7 +30344,7 @@
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="3">
         <v>43370</v>
@@ -30411,7 +30411,7 @@
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="3">
         <v>43371</v>
@@ -30478,7 +30478,7 @@
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="3">
         <v>43374</v>
@@ -30545,7 +30545,7 @@
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="3">
         <v>43375</v>
@@ -30612,7 +30612,7 @@
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="3">
         <v>43376</v>
@@ -30679,7 +30679,7 @@
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="3">
         <v>43377</v>
@@ -30746,7 +30746,7 @@
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="3">
         <v>43378</v>
@@ -30813,7 +30813,7 @@
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="3">
         <v>43381</v>
@@ -30880,7 +30880,7 @@
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="3">
         <v>43382</v>
@@ -30947,7 +30947,7 @@
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="3">
         <v>43383</v>
@@ -31014,7 +31014,7 @@
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="3">
         <v>43384</v>
@@ -31081,7 +31081,7 @@
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="3">
         <v>43385</v>
@@ -31148,7 +31148,7 @@
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="3">
         <v>43388</v>
@@ -31215,7 +31215,7 @@
     </row>
     <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="3">
         <v>43389</v>
@@ -31282,7 +31282,7 @@
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="3">
         <v>43390</v>
@@ -31349,7 +31349,7 @@
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="3">
         <v>43391</v>
@@ -31416,7 +31416,7 @@
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="3">
         <v>43392</v>
@@ -31483,7 +31483,7 @@
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="3">
         <v>43395</v>
@@ -31550,7 +31550,7 @@
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="3">
         <v>43396</v>
@@ -31617,7 +31617,7 @@
     </row>
     <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="3">
         <v>43397</v>
@@ -31684,7 +31684,7 @@
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="3">
         <v>43398</v>
@@ -31751,7 +31751,7 @@
     </row>
     <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="3">
         <v>43399</v>
@@ -31818,7 +31818,7 @@
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3">
         <v>43402</v>
@@ -31885,7 +31885,7 @@
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="3">
         <v>43403</v>
@@ -31952,7 +31952,7 @@
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3">
         <v>43404</v>
@@ -32019,7 +32019,7 @@
     </row>
     <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="3">
         <v>43405</v>
@@ -32086,7 +32086,7 @@
     </row>
     <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3">
         <v>43406</v>
@@ -32153,7 +32153,7 @@
     </row>
     <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="3">
         <v>43409</v>
@@ -32220,7 +32220,7 @@
     </row>
     <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="3">
         <v>43410</v>
@@ -32287,7 +32287,7 @@
     </row>
     <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="3">
         <v>43411</v>
@@ -32354,7 +32354,7 @@
     </row>
     <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="3">
         <v>43412</v>
@@ -32421,7 +32421,7 @@
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="3">
         <v>43413</v>
@@ -32488,7 +32488,7 @@
     </row>
     <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="3">
         <v>43416</v>
@@ -32555,7 +32555,7 @@
     </row>
     <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="3">
         <v>43417</v>
@@ -32622,7 +32622,7 @@
     </row>
     <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="3">
         <v>43418</v>
@@ -32689,7 +32689,7 @@
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="3">
         <v>43419</v>
@@ -32756,7 +32756,7 @@
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="3">
         <v>43420</v>
@@ -32823,7 +32823,7 @@
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="3">
         <v>43423</v>
@@ -32890,7 +32890,7 @@
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="3">
         <v>43424</v>
@@ -32957,7 +32957,7 @@
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="3">
         <v>43425</v>
@@ -33024,7 +33024,7 @@
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="3">
         <v>43427</v>
@@ -33091,7 +33091,7 @@
     </row>
     <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="3">
         <v>43430</v>
@@ -33158,7 +33158,7 @@
     </row>
     <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="3">
         <v>43431</v>
@@ -33225,7 +33225,7 @@
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="3">
         <v>43432</v>
@@ -33292,7 +33292,7 @@
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="3">
         <v>43433</v>
@@ -33359,7 +33359,7 @@
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="3">
         <v>43434</v>
@@ -33426,7 +33426,7 @@
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="3">
         <v>43437</v>
@@ -33493,7 +33493,7 @@
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="3">
         <v>43438</v>
@@ -33560,7 +33560,7 @@
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="3">
         <v>43440</v>
@@ -33627,7 +33627,7 @@
     </row>
     <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="3">
         <v>43441</v>
@@ -33694,7 +33694,7 @@
     </row>
     <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="3">
         <v>43444</v>
@@ -33761,7 +33761,7 @@
     </row>
     <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="3">
         <v>43445</v>
@@ -33828,7 +33828,7 @@
     </row>
     <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="3">
         <v>43446</v>
@@ -33895,7 +33895,7 @@
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="3">
         <v>43447</v>
@@ -33962,7 +33962,7 @@
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="3">
         <v>43448</v>
@@ -34029,7 +34029,7 @@
     </row>
     <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="3">
         <v>43451</v>
@@ -34096,7 +34096,7 @@
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="3">
         <v>43452</v>
@@ -34163,7 +34163,7 @@
     </row>
     <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="3">
         <v>43453</v>
@@ -34230,7 +34230,7 @@
     </row>
     <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3">
         <v>43454</v>
@@ -34297,7 +34297,7 @@
     </row>
     <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="3">
         <v>43455</v>
@@ -34364,7 +34364,7 @@
     </row>
     <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="3">
         <v>43458</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3">
         <v>43460</v>
@@ -34498,7 +34498,7 @@
     </row>
     <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="3">
         <v>43461</v>
@@ -34565,7 +34565,7 @@
     </row>
     <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3">
         <v>43462</v>
@@ -34632,7 +34632,7 @@
     </row>
     <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3">
         <v>43465</v>
